--- a/FactorLib/resource/tsl_tableinfo.xlsx
+++ b/FactorLib/resource/tsl_tableinfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="FactorID" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,14 @@
   </si>
   <si>
     <t>tot_shrhldr_eqy_excl_min_int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣除非经常性损益后的净利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net_profit_deduct_nonprofit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,16 +411,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="36.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -482,6 +490,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>42017</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FactorLib/resource/tsl_tableinfo.xlsx
+++ b/FactorLib/resource/tsl_tableinfo.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{07C33523-A243-48AE-A2F2-8DBE831F95AC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FactorID" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,13 +75,17 @@
   </si>
   <si>
     <t>net_profit_deduct_nonprofit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,22 +414,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
     <col min="3" max="3" width="36.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,8 +439,11 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -445,8 +453,11 @@
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -456,8 +467,11 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -467,8 +481,11 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -478,8 +495,11 @@
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -489,8 +509,11 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -499,6 +522,9 @@
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="D7">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/FactorLib/resource/tsl_tableinfo.xlsx
+++ b/FactorLib/resource/tsl_tableinfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{07C33523-A243-48AE-A2F2-8DBE831F95AC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4CDDE27A-73FF-47D7-BC19-AB512B357D39}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,126 @@
   </si>
   <si>
     <t>TableID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施公布日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预案公布日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股东大会日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决案公布日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股权登记日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除权除息日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红利比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实得比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送股比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红股比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转增比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分红发放日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送股上市日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dvd_ann_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_div_smtgdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_div_prelanndate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_div_finaldate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eqy_record_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cash_dvd_per_sh_pre_tax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cash_dvd_per_sh_after_tax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_div_bonusrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stk_dvd_per_sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_div_conversedrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dvd_payout_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listing_dt_of_dvd_shr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,10 +536,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -527,8 +647,219 @@
         <v>42</v>
       </c>
     </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>18000</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>18001</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>18002</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>18003</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>18004</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>18005</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>18006</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>18007</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>18008</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>18009</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>18010</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>18011</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>18012</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>18013</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>18014</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FactorLib/resource/tsl_tableinfo.xlsx
+++ b/FactorLib/resource/tsl_tableinfo.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4CDDE27A-73FF-47D7-BC19-AB512B357D39}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA355805-8DBC-464F-9680-B52564CE0DDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FactorID" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,6 +199,30 @@
   </si>
   <si>
     <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shares_hold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占总股本比例(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio_hold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,20 +560,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" customWidth="1"/>
-    <col min="3" max="3" width="36.25" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -577,7 +601,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -591,7 +615,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -605,7 +629,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -619,7 +643,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -633,7 +657,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -647,7 +671,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -661,7 +685,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -675,7 +699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -689,7 +713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -703,7 +727,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -717,7 +741,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -731,7 +755,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -745,7 +769,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -759,7 +783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -773,7 +797,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -787,7 +811,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -801,7 +825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -815,7 +839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -829,7 +853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -843,7 +867,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -855,6 +879,48 @@
       </c>
       <c r="D22">
         <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23">
+        <v>132001</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24">
+        <v>132002</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>132003</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
